--- a/final_data_pipeline/output/311221longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311221longform_elec_options_nowhp.xlsx
@@ -618,7 +618,7 @@
         <v>52</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -633,10 +633,10 @@
         <v>8081159.005544626</v>
       </c>
       <c r="N2">
-        <v>1.550576923076923</v>
+        <v>1.458486584262888</v>
       </c>
       <c r="O2">
-        <v>1.658958333333333</v>
+        <v>1.552746181345467</v>
       </c>
       <c r="P2">
         <v>1010.144875693078</v>
@@ -771,7 +771,7 @@
         <v>52</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -786,10 +786,10 @@
         <v>3667872.238277683</v>
       </c>
       <c r="N5">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="O5">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="P5">
         <v>458.4840297847104</v>
@@ -824,7 +824,7 @@
         <v>53</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -871,7 +871,7 @@
         <v>52</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -886,10 +886,10 @@
         <v>5791327.038755896</v>
       </c>
       <c r="N7">
-        <v>1.550576923076923</v>
+        <v>1.676945000770297</v>
       </c>
       <c r="O7">
-        <v>1.658958333333333</v>
+        <v>1.806427491177953</v>
       </c>
       <c r="P7">
         <v>723.9158798444869</v>
@@ -924,7 +924,7 @@
         <v>53</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -986,10 +986,10 @@
         <v>354972.5175570197</v>
       </c>
       <c r="N9">
-        <v>1.550576923076923</v>
+        <v>1.676945000770297</v>
       </c>
       <c r="O9">
-        <v>1.658958333333333</v>
+        <v>1.806427491177953</v>
       </c>
       <c r="P9">
         <v>44.37156469462747</v>
@@ -1024,7 +1024,7 @@
         <v>54</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1071,7 +1071,7 @@
         <v>52</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1086,10 +1086,10 @@
         <v>4934422.050475858</v>
       </c>
       <c r="N11">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="O11">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="P11">
         <v>616.8027563094822</v>
@@ -1124,7 +1124,7 @@
         <v>53</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1224,7 +1224,7 @@
         <v>52</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1239,10 +1239,10 @@
         <v>3387056.786013976</v>
       </c>
       <c r="N14">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O14">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P14">
         <v>423.3820982517469</v>
@@ -1277,7 +1277,7 @@
         <v>52</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1292,10 +1292,10 @@
         <v>1874001.261425787</v>
       </c>
       <c r="N15">
-        <v>1.550576923076923</v>
+        <v>1.596883662077925</v>
       </c>
       <c r="O15">
-        <v>1.658958333333333</v>
+        <v>1.712764324418727</v>
       </c>
       <c r="P15">
         <v>234.2501576782234</v>
@@ -1330,7 +1330,7 @@
         <v>53</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1477,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1492,10 +1492,10 @@
         <v>851383.7380769209</v>
       </c>
       <c r="N19">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O19">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P19">
         <v>106.4229672596151</v>
@@ -1530,7 +1530,7 @@
         <v>52</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1545,10 +1545,10 @@
         <v>2047820.467400163</v>
       </c>
       <c r="N20">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="O20">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="P20">
         <v>255.9775584250204</v>
@@ -1583,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1683,7 +1683,7 @@
         <v>52</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1698,10 +1698,10 @@
         <v>307462.5573054439</v>
       </c>
       <c r="N23">
-        <v>1.550576923076923</v>
+        <v>1.442683896620278</v>
       </c>
       <c r="O23">
-        <v>1.658958333333333</v>
+        <v>1.534625267665953</v>
       </c>
       <c r="P23">
         <v>38.43281966318048</v>
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1804,10 +1804,10 @@
         <v>6952097.826393922</v>
       </c>
       <c r="N25">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O25">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P25">
         <v>869.0122282992402</v>
@@ -1842,7 +1842,7 @@
         <v>53</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -2042,7 +2042,7 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2057,10 +2057,10 @@
         <v>6579849.260778131</v>
       </c>
       <c r="N30">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="O30">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="P30">
         <v>822.4811575972665</v>
@@ -2095,7 +2095,7 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2142,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2157,10 +2157,10 @@
         <v>4879005.16808028</v>
       </c>
       <c r="N32">
-        <v>1.550576923076923</v>
+        <v>1.596883662077925</v>
       </c>
       <c r="O32">
-        <v>1.658958333333333</v>
+        <v>1.712764324418727</v>
       </c>
       <c r="P32">
         <v>609.8756460100349</v>
@@ -2195,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2210,10 +2210,10 @@
         <v>7857313.432402838</v>
       </c>
       <c r="N33">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O33">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P33">
         <v>982.1641790503547</v>
@@ -2248,7 +2248,7 @@
         <v>53</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2295,7 +2295,7 @@
         <v>52</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2310,10 +2310,10 @@
         <v>2343214.95244832</v>
       </c>
       <c r="N35">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="O35">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="P35">
         <v>292.90186905604</v>
@@ -2348,7 +2348,7 @@
         <v>53</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2395,7 +2395,7 @@
         <v>52</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2410,10 +2410,10 @@
         <v>7691382.202600045</v>
       </c>
       <c r="N37">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="O37">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="P37">
         <v>961.4227753250055</v>
@@ -2448,7 +2448,7 @@
         <v>53</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2495,7 +2495,7 @@
         <v>52</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J39">
         <v>8000</v>
@@ -2510,10 +2510,10 @@
         <v>1387334.406635468</v>
       </c>
       <c r="N39">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O39">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P39">
         <v>173.4168008294335</v>
@@ -2548,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -2563,10 +2563,10 @@
         <v>1586090.427284452</v>
       </c>
       <c r="N40">
-        <v>1.550576923076923</v>
+        <v>1.697937058846468</v>
       </c>
       <c r="O40">
-        <v>1.658958333333333</v>
+        <v>1.831120384959332</v>
       </c>
       <c r="P40">
         <v>198.2613034105565</v>
@@ -2601,7 +2601,7 @@
         <v>52</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2616,10 +2616,10 @@
         <v>6013595.265764219</v>
       </c>
       <c r="N41">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O41">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P41">
         <v>751.6994082205274</v>
